--- a/05 - Développement/EAE/FICHE_TESTS_UNITAIRES_EAE_IEC61499_PROJET-IEC61499_V2.xlsx
+++ b/05 - Développement/EAE/FICHE_TESTS_UNITAIRES_EAE_IEC61499_PROJET-IEC61499_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/05 - Développement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/damienlorigeon/Documents/Polytech/5A/PRI/PRI-IEC61499-UniversalAutomation/05 - Développement/EAE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE55AC2-4DE5-6348-9DB9-1332B9C12C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B679DB11-7927-B14B-A541-512B53E06D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16140" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Synthèse" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="532">
   <si>
     <t>TESTS UNITAIRES - PROGRAMME EAE IEC 61499</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Non testés</t>
-  </si>
-  <si>
-    <t>% Réussite</t>
   </si>
   <si>
     <t>FB_EntryLogic</t>
@@ -198,11 +195,6 @@
 Événement INITO émis</t>
   </si>
   <si>
-    <t>- État passe à INIT
-- Toutes sorties FALSE sauf Reset_light
-- INITO émis dans les 100ms</t>
-  </si>
-  <si>
     <t>TU-ENT-02</t>
   </si>
   <si>
@@ -215,13 +207,6 @@
     <t>1. Bloc initialisé (état INIT)
 2. Factory I/O connecté
 3. Mode Auto disponible sur IHM</t>
-  </si>
-  <si>
-    <t>1. Mettre Auto = TRUE
-2. Mettre Start = TRUE
-3. Vérifier Stop = TRUE (non appuyé)
-4. Envoyer REQ
-5. Observer l'état et les sorties</t>
   </si>
   <si>
     <t>Événement: REQ
@@ -237,12 +222,6 @@
 Événement CNF émis</t>
   </si>
   <si>
-    <t>- État passe à RUNNINGG
-- Convoyeur démarre
-- Voyant Start allumé
-- Lame baissée</t>
-  </si>
-  <si>
     <t>TU-ENT-03</t>
   </si>
   <si>
@@ -1030,10 +1009,6 @@
 INITO composite émis</t>
   </si>
   <si>
-    <t>- Chaîne complète en &lt; 200ms
-- Tous blocs internes initialisés</t>
-  </si>
-  <si>
     <t>TU-EQE-02</t>
   </si>
   <si>
@@ -1843,11 +1818,6 @@
     <t>Connexion établie
 Pas d'erreur timeout
 Échanges de données actifs</t>
-  </si>
-  <si>
-    <t>- Connexion TCP établie
-- Pas de perte de paquets
-- Temps de réponse &lt; 500ms</t>
   </si>
   <si>
     <t>TU-COM-02</t>
@@ -2045,12 +2015,66 @@
 - Les connexions adapter (Socket/Plug)
 - Les connexions de données entre composites</t>
   </si>
+  <si>
+    <t xml:space="preserve">
+- Toutes sorties FALSE sauf Reset_light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Convoyeur démarre
+- Voyant Start allumé
+- Lame baissée</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>RAS</t>
+  </si>
+  <si>
+    <t>1. Mettre Auto = TRUE
+2. Mettre Start = TRUE
+3. Vérifier Stop = TRUE (non appuyé) 5. Mettre Reset = TRUE
+4. Envoyer REQ
+5. Observer l'état et les sorties</t>
+  </si>
+  <si>
+    <t>Pour pièce différente de bleu qui vient après le traitement d'une bleu il faut mettre de temps en temps manuellement un FD de at_exit</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>- État passe à INIT puis IDLEE
+- Valeurs initialisées à 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- Tous blocs internes initialisés</t>
+  </si>
+  <si>
+    <t>- Blocage demandé
+- EntryConv lever la lame</t>
+  </si>
+  <si>
+    <t>Si pièce Bleu trié pièce suivante reste bloqué (pour débloquer nécessite un FD de At_exit</t>
+  </si>
+  <si>
+    <t>Mon ECC ne gère pas 2 évenemment en même temps dans le même ECC. Défaut de l'iec61499</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>- Connexion TCP établie
+- Pas de perte de paquets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2090,6 +2114,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2169,7 +2199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2215,6 +2245,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2519,18 +2555,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2539,9 +2575,8 @@
       <c r="D1" s="20"/>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -2550,9 +2585,8 @@
       <c r="D2" s="20"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2568,7 +2602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2576,7 +2610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -2584,12 +2618,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2605,133 +2639,180 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="5">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="5">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="5">
         <v>6</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="5">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5">
         <v>5</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="5">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5">
         <v>6</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5">
         <v>5</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C21" s="5">
+        <v>5</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="11">
         <f>SUM(B12:B21)</f>
@@ -2740,8 +2821,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2751,8 +2832,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="22" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2771,7 +3107,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -2786,408 +3122,213 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>446</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>462</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>470</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>477</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>482</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>488</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>501</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>505</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3212,7 +3353,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3222,12 +3363,12 @@
     </row>
     <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -3269,12 +3410,12 @@
     </row>
     <row r="10" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -3316,12 +3457,12 @@
     </row>
     <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -3363,12 +3504,12 @@
     </row>
     <row r="24" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -3410,12 +3551,12 @@
     </row>
     <row r="31" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -3457,12 +3598,12 @@
     </row>
     <row r="38" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="22" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -3504,12 +3645,12 @@
     </row>
     <row r="45" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="22" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -3551,12 +3692,12 @@
     </row>
     <row r="52" spans="1:6" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="22" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3598,15 +3739,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A18:F22"/>
+    <mergeCell ref="A39:F43"/>
     <mergeCell ref="A53:F57"/>
     <mergeCell ref="A25:F29"/>
     <mergeCell ref="A11:F15"/>
     <mergeCell ref="A4:F8"/>
     <mergeCell ref="A46:F50"/>
     <mergeCell ref="A32:F36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A18:F22"/>
-    <mergeCell ref="A39:F43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3616,8 +3757,1055 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="K2" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="29.33203125" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="22" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="83" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="11" max="11" width="22" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3636,7 +4824,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>28</v>
+        <v>218</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3651,270 +4839,178 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>40</v>
+      <c r="A4" s="16" t="s">
+        <v>219</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
+        <v>225</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>48</v>
+      <c r="A5" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>51</v>
+        <v>229</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+        <v>233</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>56</v>
+      <c r="A6" s="16" t="s">
+        <v>234</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>238</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+        <v>241</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>64</v>
+      <c r="A7" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>66</v>
+        <v>244</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="13"/>
+        <v>248</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3924,12 +5020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K8"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3948,7 +5044,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3963,183 +5059,248 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>104</v>
+      <c r="A4" s="12" t="s">
+        <v>250</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>106</v>
+        <v>252</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>108</v>
+        <v>254</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>109</v>
+        <v>256</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
+        <v>526</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>111</v>
+      <c r="A5" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>114</v>
+        <v>260</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+        <v>264</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>119</v>
+      <c r="A6" s="12" t="s">
+        <v>265</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>120</v>
+        <v>266</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>121</v>
+        <v>267</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>122</v>
+        <v>268</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>125</v>
+        <v>271</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+        <v>272</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>127</v>
+      <c r="A7" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>129</v>
+        <v>275</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>130</v>
+        <v>276</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>133</v>
+        <v>279</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
+        <v>280</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>135</v>
+      <c r="A8" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>137</v>
+        <v>283</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>139</v>
+        <v>285</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>141</v>
+        <v>287</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
+        <v>288</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4149,12 +5310,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K13"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4168,12 +5329,12 @@
     <col min="7" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="22" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4188,328 +5349,213 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>144</v>
+      <c r="A4" s="14" t="s">
+        <v>298</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>145</v>
+        <v>299</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>146</v>
+        <v>300</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>147</v>
+        <v>301</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
+        <v>303</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>150</v>
+      <c r="A5" s="14" t="s">
+        <v>304</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>151</v>
+        <v>305</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>154</v>
+        <v>308</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>155</v>
+        <v>309</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>156</v>
+        <v>310</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+        <v>311</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>158</v>
+      <c r="A6" s="14" t="s">
+        <v>312</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>159</v>
+        <v>313</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>161</v>
+        <v>315</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>162</v>
+        <v>316</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>164</v>
+        <v>318</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+        <v>319</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>166</v>
+      <c r="A7" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>168</v>
+        <v>322</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>169</v>
+        <v>323</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>170</v>
+        <v>324</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
+        <v>327</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>174</v>
+      <c r="A8" s="14" t="s">
+        <v>328</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>175</v>
+        <v>329</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>176</v>
+        <v>330</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>180</v>
+        <v>334</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="13"/>
+        <v>335</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4519,12 +5565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K7"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4538,12 +5584,12 @@
     <col min="7" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="22" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>222</v>
+        <v>336</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4558,154 +5604,248 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>223</v>
+      <c r="A4" s="15" t="s">
+        <v>337</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>224</v>
+        <v>338</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>226</v>
+        <v>340</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
+        <v>342</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>230</v>
+      <c r="A5" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+        <v>350</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>238</v>
+      <c r="A6" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+        <v>358</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>246</v>
+      <c r="A7" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>251</v>
+        <v>365</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
+        <v>366</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4715,12 +5855,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K9"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4734,12 +5874,12 @@
     <col min="7" max="8" width="28" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="11" max="11" width="22" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>253</v>
+        <v>383</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -4754,916 +5894,213 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="38" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
